--- a/out.xlsx
+++ b/out.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A121"/>
+  <dimension ref="A1:A915"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,602 +442,4572 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.7585315613016006</v>
+        <v>0.8373402366715093</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.6478866322386649</v>
+        <v>0.6788559942476211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.5916511865392808</v>
+        <v>0.5694923402801637</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.5444582311376449</v>
+        <v>0.5024282177129099</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.5035271463855621</v>
+        <v>0.4453370611033132</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.4662690900506512</v>
+        <v>0.402825201519074</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.4419443221342179</v>
+        <v>0.3566421156929385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.4083991683298542</v>
+        <v>0.3222621943681471</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3952861392209607</v>
+        <v>0.3050580152340474</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.3715289103408014</v>
+        <v>0.2761823103072182</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.3451038168803338</v>
+        <v>0.2583441985951316</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.3288800501535016</v>
+        <v>0.2343349107571187</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.3143279940610932</v>
+        <v>0.210897983598613</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2954224163365941</v>
+        <v>0.2015076648564108</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.2871276427180536</v>
+        <v>0.1910789671804636</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2561187433379312</v>
+        <v>0.1681967593969837</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.2540764775007002</v>
+        <v>0.1706887050621932</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.2444148503964947</v>
+        <v>0.1314306193902608</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.2258084030641664</v>
+        <v>0.1400728157991844</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.2224336204870093</v>
+        <v>0.1249729774531818</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2256406064510171</v>
+        <v>0.206116593652541</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.1934197662420004</v>
+        <v>0.1507544104467358</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.1936989249062468</v>
+        <v>0.1341847320800723</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.180177837664708</v>
+        <v>0.1170165335503543</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.1657977126408041</v>
+        <v>0.1029266839089929</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.1623694218411955</v>
+        <v>0.1265936390937943</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.1622527792004117</v>
+        <v>0.09306280699160974</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.1572746511913662</v>
+        <v>0.0982666800822518</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.1471353477814741</v>
+        <v>0.1021975691720288</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.1524460424140793</v>
+        <v>0.06593424644067949</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.1313952543930701</v>
+        <v>0.113244693155798</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.139390756711037</v>
+        <v>0.07007650844752789</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.1455617896471804</v>
+        <v>0.09738651417775832</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.1112835706560192</v>
+        <v>0.04873905491903533</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.1176150470470999</v>
+        <v>0.09510702753033794</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.1037408003797319</v>
+        <v>0.0757547832687783</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.1167078716163006</v>
+        <v>0.04873773002417006</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.109227445877936</v>
+        <v>0.07209209816929291</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.09803522117599323</v>
+        <v>0.07524823198334603</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.11555762542684</v>
+        <v>0.08087777924704861</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.09247857230655544</v>
+        <v>0.0431321429283418</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.1202171014905063</v>
+        <v>0.07268512213251374</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.08315819577036197</v>
+        <v>0.05681120809331013</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.06782747117791608</v>
+        <v>0.03632937277509281</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.1010180070263753</v>
+        <v>0.09071461220148662</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.09030727245940211</v>
+        <v>0.02764257309866092</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.09162111448979125</v>
+        <v>0.05784083437991508</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.07774801937521474</v>
+        <v>0.07384182914835537</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.05974669057715205</v>
+        <v>0.05095124141924486</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.07078606659976755</v>
+        <v>0.03736209982702487</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.09933479133808212</v>
+        <v>0.08283974322545198</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.07528240707830923</v>
+        <v>0.0198246390543121</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.07753686979344954</v>
+        <v>0.01572581448191259</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.05527202762276675</v>
+        <v>0.06929409711203696</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.06150551479716911</v>
+        <v>0.07057186151440772</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.06138888616605025</v>
+        <v>0.07707187930773944</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.1378185518143143</v>
+        <v>0.05504419022674362</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.03498879219820636</v>
+        <v>0.03767688236168276</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.03511549324772119</v>
+        <v>0.04388177356993159</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.1138813680099808</v>
+        <v>0.07548860092492153</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.05546831114621689</v>
+        <v>0.01620015974552371</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.04532577657622111</v>
+        <v>0.07442279554841419</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.0610862990347015</v>
+        <v>0.03222772645826141</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.06813335054273559</v>
+        <v>0.03630326525230582</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.04574540296293066</v>
+        <v>0.05737739222155263</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.07250645399918747</v>
+        <v>0.03171623671085884</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.0406123556622865</v>
+        <v>0.007880872101678203</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.03723224117274244</v>
+        <v>0.1029197457856499</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.04585753487421701</v>
+        <v>0.04096765249921009</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.1370396921656241</v>
+        <v>0.009639982008530447</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.2741450658291578</v>
+        <v>0.0047115498012087</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.08416182911892732</v>
+        <v>0.003845192788847878</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.08675063345395029</v>
+        <v>0.003073990435688756</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.0652568674609065</v>
+        <v>0.002953897947535249</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.05691896523348987</v>
+        <v>0.002890517641887224</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.05268935957706223</v>
+        <v>0.002841948006864793</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.05687091913043211</v>
+        <v>0.1480139116546197</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.0697354560221235</v>
+        <v>0.07762489239064356</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.0597306142821908</v>
+        <v>0.02760029203103235</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.04936217187702035</v>
+        <v>0.05935453689564019</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.04194172787340358</v>
+        <v>0.04860764472264176</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.04748747628430525</v>
+        <v>0.0400318821707818</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.05761000772782912</v>
+        <v>0.02647768405332075</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.05401087413790325</v>
+        <v>0.01386579165201207</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.03179656090494246</v>
+        <v>0.06369504802041531</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.06871377833777417</v>
+        <v>0.05374129221759116</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.05141471591498703</v>
+        <v>0.02288327784475405</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.01749202525848523</v>
+        <v>0.01978662780699475</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.00754046587975851</v>
+        <v>0.06536907456343548</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.0854334690325777</v>
+        <v>0.02112387814438368</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.04327992135363942</v>
+        <v>0.03686858082652268</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.04897496723329338</v>
+        <v>0.04905282962363122</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.03446158021998902</v>
+        <v>0.02293225874444299</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.03625015132812162</v>
+        <v>0.06873178316390982</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.01426753591192149</v>
+        <v>0.01871517531228786</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.007845775481080636</v>
+        <v>0.006426749498744513</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.1090678673929069</v>
+        <v>0.004400022429230952</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.03283346605037028</v>
+        <v>0.003799249010204753</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.01286850817346324</v>
+        <v>0.003905790776267034</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.0123370854575672</v>
+        <v>0.003613254468176065</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.1100910755073031</v>
+        <v>0.003500057009824093</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.0374379355853113</v>
+        <v>0.00349338979243085</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.0119199259726253</v>
+        <v>0.07945442893578286</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.01100943619792815</v>
+        <v>0.1116871422366807</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.01539415813490632</v>
+        <v>0.04029252086283366</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.1031330940877864</v>
+        <v>0.02878551630845589</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.03131739597247603</v>
+        <v>0.06277551866358674</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.020968718867943</v>
+        <v>0.0168427712687223</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.008925513605917028</v>
+        <v>0.00678244165903335</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.07447491993425259</v>
+        <v>0.004135075615056671</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.037662552397931</v>
+        <v>0.003760894255946169</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.02935599692778972</v>
+        <v>0.003652009884526928</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.03064850854291581</v>
+        <v>0.003623683548277945</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.02646010434487835</v>
+        <v>0.08008788818875118</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.04889170307355623</v>
+        <v>0.08672638814669194</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.01902266796647261</v>
+        <v>0.03065738301353654</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.008086493359995074</v>
+        <v>0.03356873589892951</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.003569585496758615</v>
+        <v>0.04457916111703792</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.002671799068465286</v>
+        <v>0.0314441693654971</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.009662279862760139</v>
+        <v>0.01106231360175937</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.00420366910860516</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.003841282150593853</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.003586910274236466</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.003461534279445115</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.00355423201882531</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.003423939401470373</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.1333138708081339</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.1824796722183042</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.05319944266031936</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.03549558124077867</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.04246298711284916</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.03683210367468911</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.04725971751435143</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.01523331251822025</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.04365083341968821</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.02112652366549627</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.0363567576981832</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.01534695783753721</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.04528211818117819</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.01723493781399043</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.03384433733258681</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.02865238078574023</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.04370286112831712</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.009886679285310335</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.009130398479438886</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.07708440186885307</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.01203398379511294</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.02667759959486347</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.03010356622924263</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.02428694743404524</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.01124024669457721</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.01002439118341829</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.04168313295210264</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.04018117479558865</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.02572857093211041</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.03207220970004428</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.008513589185154781</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.004749952820696061</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.004261873710296543</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.06038646215922598</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.02997118198453195</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.01113643735429965</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.04009324070490197</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.01875446432044376</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.008635387869777999</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.05554024911136887</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.008813961047468524</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.01260606480107494</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.04877064823640731</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.01983409979774839</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.005133502327470029</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.04315847680242684</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.02299380781180459</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.01501785331828305</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.0523483093023707</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.0164033287987305</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.006478174630072167</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.005767260736723346</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.005635856817569163</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.00575599640593357</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.005517661713796414</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.005230489541370787</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.1134372540526999</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.01953361141184866</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.01053121278993185</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.03555714743958664</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.03662684983876894</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.008792157997599246</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.005845286850557592</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.005549314644589141</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.005416413586812568</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.05218412141463146</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.06388118071541593</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.01447392558455755</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.006251536135906209</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.006100422830861566</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.005593365639106196</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.005580896954727239</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.006560078566975246</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.09744136736118571</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>0.015141496975944</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>0.02084051185914918</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>0.04105255274172901</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>0.01058290980587661</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>0.006918447222471383</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>0.005932506768728025</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>0.005477549966040503</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>0.00588461901685694</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>0.005556902709550043</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>0.005489553999131644</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0.05655370141936666</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0.01490269567647677</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>0.008846318029543563</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>0.008022259771439296</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>0.04128130556752044</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>0.04848801573195184</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>0.02719151513129916</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>0.02963804468415522</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>0.01952417780430194</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>0.007355321502441906</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>0.006603142287875969</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>0.01016217370001652</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>0.08021179353042195</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>0.01173732299452587</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>0.03003523489581615</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>0.03535863856020071</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>0.009706627269635127</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>0.006972769070999199</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>0.006327244594076113</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>0.006468040761974408</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>0.07390058772480448</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>0.01083318378694197</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>0.03284407194735</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>0.00906206896617992</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>0.03926569768841589</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>0.02191713178663208</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>0.02878403127244036</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>0.02836422713961275</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>0.009640153522676493</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>0.00663515797747615</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>0.006132176388314509</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0.006187419046723118</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>0.0659383028491755</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>0.02177081980099458</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>0.00855301048307627</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>0.008311423975825337</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>0.006128759805495152</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>0.00615235043801693</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>0.08069308058948775</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>0.01983034204528113</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>0.009679924738558752</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>0.03774329488670078</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>0.02535861695369628</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>0.01954325083162292</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0.008960493261977148</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0.006985104755594442</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>0.07091935220113661</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>0.01301706760600272</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0.03091566746993859</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0.02241199512284094</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0.01076030064406738</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>0.03333859478353129</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0.02167628898136391</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0.02361730125679063</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0.01836318942707628</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0.0188578282765129</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0.02670186956665383</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0.01494803534583153</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0.02161195700221087</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>0.02419434497108087</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0.03038745189779827</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0.0103532525100963</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0.006786518101060535</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>0.006304457682479989</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0.01818056620792682</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>0.05332179492544761</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0.009333202710809741</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>0.006643717741744919</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>0.00628715128459268</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>0.006209162609276921</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>0.06740042446440561</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>0.01559015844677143</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>0.008914097280521737</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>0.03177340135407447</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>0.02232692714410935</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>0.02370927924349407</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>0.01652299189989163</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>0.01446223811730267</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>0.04150702628525221</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>0.008803018098430903</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>0.00657156127333396</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>0.006629580585365883</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>0.03833138350302018</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>0.03004777731190002</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>0.008870715386493741</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>0.006460751779376496</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>0.006189836896258838</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>0.00609907659560771</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>0.05511333024951808</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>0.02168122662657651</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>0.00980438504220592</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>0.006560829088249761</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>0.006377642117555038</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>0.05726058615520402</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>0.02149241423954628</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>0.01650391667478299</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>0.03392485301603379</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>0.01208215199012362</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>0.008064880215630251</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>0.007462121225731318</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>0.006786213443568521</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>0.006570827241717803</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>0.008505661080653749</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>0.06766740344880071</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>0.01357152553322826</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>0.009732349012879069</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>0.007340211660651089</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>0.006729873827125988</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>0.006663588652090453</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>0.006686001799417355</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>0.06996529899744863</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>0.02621800125791035</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>0.01068739369086038</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>0.007298698274436083</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>0.006899697057157201</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>0.04498686920020678</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>0.0179916904156409</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>0.02422261008926985</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>0.01680562147286039</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>0.009018458314681913</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>0.03982813951392292</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>0.02047121224607087</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>0.01944241323905274</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>0.01000788813509019</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>0.008079622731545595</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>0.0331885790157195</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>0.01780258625957684</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>0.01582662790042526</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>0.02501349447757619</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>0.02554520992882693</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>0.008053821403754928</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>0.006913934368159303</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>0.007121153188655239</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>0.009960144032934945</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>0.05655905904949143</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>0.009890617361552076</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>0.04975273585580923</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>0.02175481919484851</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>0.0220036160218598</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>0.023375654613924</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>0.02679418814508048</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>0.02398899957170577</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>0.01627515773313475</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>0.008575495745206222</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>0.008064749795237585</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>0.007707596407808496</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>0.05450132505333348</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>0.01781148784294959</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>0.01068841127982612</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>0.008649477681914557</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>0.04486201937664067</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>0.01301318355062918</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>0.008416326031209434</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>0.00841468231994446</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>0.007674024415709268</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>0.05578414327886527</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>0.01706879041700741</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>0.01391169118228202</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>0.02581828019856194</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>0.0104370240664122</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>0.008072757723708898</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>0.007727742715105483</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>0.05236919509046617</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>0.01165943163576322</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>0.008492874582586492</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>0.03843297030691976</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>0.0157531755116412</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>0.009695116678231225</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>0.007995413923707794</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>0.03355548276843213</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>0.02242578518500974</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>0.01155505865831422</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>0.03024643929368138</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>0.01480367971389304</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>0.008328581445667173</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>0.007754494657721283</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>0.007854863501232042</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>0.007605869601521851</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>0.007555172549193403</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>0.01292086607649654</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>0.06478172561019527</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>0.01132593728722782</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>0.008614730075913651</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>0.02966004222861164</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>0.01733123463061339</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>0.01420795268835966</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>0.03313179607472617</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>0.01585238225927504</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>0.0183210194108622</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>0.02470631456291997</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>0.01529165421373094</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>0.008246385785373142</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>0.007862903019926221</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>0.008147908144678207</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>0.04539065429936729</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>0.0204760800528693</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>0.01098978411199159</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>0.008075608387636973</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>0.007919965727236895</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>0.03768990618482267</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>0.01811955319807942</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>0.01996222475509123</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>0.02156201198363729</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>0.008599481089634268</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>0.007852682237785368</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>0.007683826007520925</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>0.04549010556418118</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>0.01641342349969887</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>0.01018892745230573</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>0.008137598488386244</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>0.007901518476698345</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>0.04857360539673041</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>0.01553736832197768</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>0.01864318123447192</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>0.01932783505700681</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>0.0192335193875659</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>0.02090064503622716</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>0.0182670112983959</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>0.0181299174283505</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>0.02906793915688986</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>0.01232364191997029</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>0.01125951347091879</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>0.02255708721495609</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>0.02023986181029353</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>0.01393616293917109</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>0.01921631529673345</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>0.01702255618122598</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>0.03108033398789534</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>0.01221392071661906</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>0.03149103267431606</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>0.01256894751746883</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>0.02602983088560122</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>0.01616109801085409</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>0.0204222329561718</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>0.01709252791427489</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>0.01966085329919692</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>0.02426475297448235</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>0.00987503705252509</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>0.0272208488389118</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>0.01469473557067516</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>0.01029510551629987</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>0.02827172428394064</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>0.01290138394126162</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>0.008665234246310025</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>0.008354958571508591</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>0.04776138279459126</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>0.01054771282070668</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>0.009223266052246578</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>0.03196952316192676</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>0.01638972391012964</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>0.01603220318417733</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>0.02038483666130948</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>0.02248271929765564</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>0.01083886018477277</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>0.008524833697162098</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>0.008519424331679825</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>0.03751090559959588</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>0.02077840458001378</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>0.0101792368726589</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>0.008884429432841911</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>0.008448634161882119</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>0.008423085221089385</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>0.008405784255811479</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>0.008438487779472479</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>0.06224214367660781</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>0.0123293628054692</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>0.01690205489923644</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>0.1168341546743353</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>0.02755753566986795</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>0.02635073870205929</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>0.01849253872590584</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>0.0269448329234994</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>0.01738652299170768</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>0.02472900001041766</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>0.02008068851791447</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>0.02076264233717254</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>0.02480570081070312</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>0.01678289631010511</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>0.01049313143404855</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>0.009271011275859279</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>0.008678726148774909</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>0.01724404787182034</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>0.04504604693249589</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>0.01336357554215317</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>0.02262974639608797</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>0.01019203656757507</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>0.02039912251416096</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>0.02965619832114573</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>0.01028559791290415</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>0.02833362919205775</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>0.01779922185746527</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>0.01459166866001419</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>0.02284146818998559</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>0.02216856331531104</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>0.02189468397965762</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>0.01500739278934467</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>0.009307583361550194</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>0.008774857766240769</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>0.008665791927146444</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>0.008753570501421963</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>0.0623146106260016</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>0.01369455394801119</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>0.01169756159624339</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>0.03130187416067682</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>0.01254453230060292</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>0.02158527927112856</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>0.01609123472060319</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>0.009346143281342716</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>0.008902887701905393</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>0.008838256198583885</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>0.04302782003513062</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>0.01720043800803452</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>0.01676884515446951</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>0.08676334416678717</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>0.01938116385083079</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>0.02219117328445517</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>0.01245332773493912</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>0.009924316518574854</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>0.008776981408503852</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>0.008670378225438974</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>0.04892113358993862</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>0.01497229799508471</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>0.02091962852283138</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>0.02659082805336764</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>0.0132514057474894</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>0.009462483596053062</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>0.00868726117738413</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>0.03437954156087784</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>0.01633560040070424</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>0.02199373880247212</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>0.01577548976453445</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>0.01883568429796138</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>0.0192006789150176</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>0.01886919366216903</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>0.01531384246806392</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>0.02129167264739509</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>0.01326886855133177</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>0.008620811511187172</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>0.008459121943245888</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>0.03941882696417113</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>0.01826666302995729</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>0.01281046961805289</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>0.02439105116950615</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>0.01433928623311796</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>0.02112141084843058</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>0.01574106854387208</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>0.01476021590030754</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>0.02625595124314675</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>0.01641689160873495</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>0.00973441822614471</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>0.008492631111494389</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>0.02697509818271666</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>0.02406489117719095</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>0.01516532580273708</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>0.01724573689787227</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>0.02437943100125407</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>0.01368324075100218</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>0.009790900877386348</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>0.009250556428248744</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>0.0409814238384827</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>0.01658130128350598</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>0.01002064486380645</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>0.00926485169005235</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>0.03534912565797115</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>0.0176362923472752</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>0.02533766958515343</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>0.01220162649868869</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>0.0201550003162944</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>0.02327766669762551</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>0.01730532395107809</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>0.01664861603801997</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>0.0101248699773873</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>0.03105921045552581</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>0.01697597588785668</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>0.01874042069923406</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>0.02048919081608398</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>0.01126897568009531</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>0.01770210413644184</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>0.02410300601217334</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>0.01518382937194194</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>0.01547135119875026</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>0.02649705066171277</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>0.02008626598584931</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>0.01336708522764997</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>0.02182547258478366</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>0.02074675656127766</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>0.01495678118073115</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>0.01982638775253024</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>0.01324125150207356</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>0.009279957740056867</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>0.009345359013306423</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>0.03801541153304753</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>0.01379105834710163</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>0.0119701679331176</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>0.02624438212835214</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>0.02008032684039904</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>0.01528563937798447</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>0.01616372664034265</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>0.01830504414007331</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>0.01795688824548523</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>0.01684914780686543</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>0.04291078725180555</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>0.02221558808391743</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>0.02796111800770471</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>0.01473706517806056</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>0.01004928035273824</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>0.02209735167281176</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>0.02616679683462983</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>0.01476623403852057</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>0.02594712627321406</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>0.01661881361195726</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>0.02167705674705548</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>0.01424443896363365</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>0.02387390671346705</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>0.01666364194939036</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>0.01920307948152894</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>0.02150434128082179</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>0.0198287390773551</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>0.01476977280030846</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>0.02202325823004456</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>0.0149214344994017</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>0.01777257526669448</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>0.02045572035978575</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>0.0203265834125407</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>0.01482353682124998</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>0.02073939363088466</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>0.01747995848437722</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>0.018158796202861</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>0.01610360506073827</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>0.02076788535455756</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>0.01744260937232005</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>0.0182032680055552</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>0.01824789273022927</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>0.01242726731810788</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>0.02242810611167437</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>0.01674720189743801</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>0.02147880743967073</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>0.01144802303678538</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>0.009984238876809199</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>0.009555588796209612</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>0.009520513584040597</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>0.009628495919553942</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>0.04106325237613823</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>0.02061807800746175</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>0.01728215137452848</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>0.02291058697698953</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>0.01907491932461009</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>0.01138482791560721</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>0.02938605511192762</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>0.01469166410641476</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>0.02446217830685797</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>0.01697837068572706</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>0.02166073460599118</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>0.02066381087358857</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>0.01765288599951699</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>0.02274940998247853</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>0.01666073776442573</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>0.02559607591840805</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>0.01236987610304583</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>0.02446773885962077</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>0.01908782927666934</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>0.01777273318434361</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>0.02173415477520096</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>0.01329417367772175</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>0.01116071754283128</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>0.03182579719044051</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>0.01394872487611469</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>0.02501268677102631</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>0.0163801629439439</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>0.01067633303431452</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>0.01013209102855958</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>0.01005133178701638</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>0.04275733022324561</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>0.01739241294175392</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>0.0129805810766561</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>0.02056434266919681</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>0.02224631388597279</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>0.01819387576180731</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>0.02095277392149915</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>0.0225871816234858</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>0.02178516428925348</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>0.0172716920097215</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>0.0193190515985918</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>0.02219213391912519</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>0.01388175737329238</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>0.02480571954292886</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>0.01792494417400044</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>0.0110261080387874</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>0.08021687289418419</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>0.0229053579171421</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>0.02375980870641612</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>0.01719595727950361</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>0.02100360293450348</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>0.02482277209484645</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>0.01696564850663562</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>0.01568033549632292</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>0.02345191963130326</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>0.0158173351230265</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>0.02424991103848407</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>0.01719214641409303</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>0.01594956934455948</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>0.02261796438531753</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>0.0208906928333312</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>0.01886845737579721</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>0.01914912085428705</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>0.01595861693492</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>0.02058634707367895</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>0.01507909331230638</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>0.02110383115860702</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>0.01911416431030409</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>0.01610232265447319</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>0.01308658397355366</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>0.02916942046216123</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>0.01239182262688121</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>0.02214149789986792</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>0.01753889315322121</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>0.01170278304458061</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>0.02482774603120226</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>0.01117955771043439</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>0.02873137413770439</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>0.01155946365738998</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>0.01008600250567006</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>0.009814542466331349</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>0.0228658015513305</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>0.0296080305654606</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>0.01380808882689145</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>0.02233174628298214</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>0.02074047643420462</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>0.01879059427173181</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>0.01706285625660674</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>0.01840636632029833</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>0.02164555907384603</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>0.01372040780133137</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>0.02195629666247223</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>0.01800252657558919</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>0.01262171806270918</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>0.02527607803077103</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>0.01667689178944763</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>0.02993218566384838</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>0.0207264288292111</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>0.01815801327213875</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>0.01619131552329839</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>0.02631237802125066</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>0.0133572090907553</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>0.01062863726572649</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>0.01357219237484412</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>0.03766660466109589</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>0.01354460090741128</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>0.01998427508367065</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>0.02204128822782053</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>0.01816734974388564</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>0.01886547890418452</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>0.02071392333365854</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>0.02082587412191123</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>0.01627102830036103</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>0.0245877713465292</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>0.01239796180573285</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>0.01192683075724175</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>0.02435369248011</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>0.01359440972869958</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>0.02651135396842254</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>0.01433072022910635</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>0.02055815877460934</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>0.02256167185429329</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>0.01806494641186995</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>0.01757689949555119</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>0.01763219787980835</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>0.02063063259140269</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>0.01155852781256415</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>0.01069992152452678</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>0.03195996410826992</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>0.01099067060147182</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>0.0103119006539402</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>0.01032521454577331</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>0.0110873027071233</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>0.04114608667128868</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>0.014723777646418</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>0.0212204897305574</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>0.01636062540542677</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>0.0135194571403935</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>0.02475905185584486</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>0.01997503547117764</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>0.01157657227057265</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>0.02234929606457776</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>0.01865483365979756</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>0.01586872511114017</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>0.02036851319049708</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>0.01182974132571825</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>0.03386454361858904</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>0.01873072815387425</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>0.01881221497100991</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>0.02196492704507846</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>0.01753197741147535</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>0.01469966307949602</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>0.02189364134949541</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>0.0189977842501936</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>0.02043715080623246</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>0.0168716766279477</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>0.0199640929578102</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>0.01054446215329624</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>0.02926690629781769</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>0.01359007451415255</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>0.02187667292050415</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>0.01452824156791357</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>0.02099875068698037</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>0.01719200004990368</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>0.02217047535445507</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>0.01502839809697472</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>0.01816619530745138</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>0.02001616723777567</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>0.02395582126696606</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>0.01564980550208471</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>0.01240584815743116</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>0.02431775321430777</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>0.02550043358393738</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>0.014430999849151</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>0.01779853910447132</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>0.02025757096666736</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>0.01499639496425335</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>0.01798030281068972</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>0.01842904910076112</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>0.02033645730929514</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>0.01325647921700846</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>0.01914502190231142</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>0.02193568461477155</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>0.0150932410665484</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>0.01471690140401299</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>0.02136066695294927</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>0.01266618519832346</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>0.01049151242678938</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>0.01004128729774</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>0.009952895210601463</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>0.03892056889813501</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>0.01834726875186663</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>0.01538524831228785</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>0.0400747614892057</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>0.02160919971068889</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>0.01895264198255783</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>0.0171522932797676</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>0.02130870621629077</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>0.01397636519011554</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>0.01869405634965549</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>0.01961155955260362</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>0.01766556641115138</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>0.01929238273542186</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>0.01458730302520791</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>0.02193035023302543</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>0.01250954965410909</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>0.02316237872362286</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>0.01501758830923331</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>0.0221204659239626</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>0.01990604726218296</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>0.01068579279221075</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>0.02276401550066658</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>0.01976084076148055</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>0.01477781751292947</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>0.02062470039429576</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>0.01888615155783093</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>0.01761612203298164</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>0.02063404143227072</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>0.01155490714933952</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>0.01944154333938926</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>0.02004010626088366</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>0.01819707473751546</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>0.02032138507685639</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>0.01818467123784431</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>0.01488761272404918</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>0.02200753383838756</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>0.01360933610303754</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>0.01868832878260221</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>0.01930044258460401</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>0.01442516289641208</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>0.01418816120367443</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>0.02265953624464326</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>0.01034669929926119</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>0.009925889674312618</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>0.02277877603820407</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>0.02184392734235244</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>0.01493187980198236</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>0.01867915533126949</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>0.02083088501562983</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>0.01700270188145074</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>0.01746911799093515</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>0.01764592215338698</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>0.7947264636716534</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>0.6610089479915557</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>0.5677704422704635</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>0.4974435119859634</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>0.4443978849918612</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>0.3910452783107757</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>0.3550079341857664</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>0.3297535124805666</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>0.2860443129654854</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>0.2601320717844271</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>0.2469642567538446</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>0.2241942271349892</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>0.1998878280481985</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>0.1843054571940053</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>0.1709174808355108</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>0.1505066310386023</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>0.1444829722505904</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>0.135782812391558</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>0.1152819044197038</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>0.1144182399516144</v>
       </c>
     </row>
   </sheetData>

--- a/out.xlsx
+++ b/out.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A915"/>
+  <dimension ref="A1:A1800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5010,6 +5010,4431 @@
         <v>0.1144182399516144</v>
       </c>
     </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>0.2381224468764332</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>0.1528878253612297</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>0.1254344369715069</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>0.1197041104117419</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>0.1045804349215407</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>0.09715144164255705</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>0.08069781052923559</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>0.09432849639819728</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>0.07516323768517427</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>0.09048547890522021</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>0.07451522766138639</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>0.0722457694069466</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>0.07125485616556385</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>0.05698736723817405</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>0.04694889424803084</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>0.06391290938604231</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>0.07527768709261123</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>0.04586063474906903</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>0.059599478873397</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>0.07122736360826012</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>0.06632549795376584</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>0.03441706440637531</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>0.04488339043082465</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>0.03804264462002205</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>0.08084361776382777</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>0.0392763888022906</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>0.03329880065158723</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>0.06481607158175447</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>0.04569420537171676</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>0.04153066256123715</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>0.04561902390389937</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>0.02022237834664966</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>0.04428469945542924</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>0.06154463411995063</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>0.04531765794655518</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>0.03286956232013889</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>0.1407748885580028</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>0.06097920781373978</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>0.03938290081607799</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>0.04920160539192148</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>0.05111605985959371</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>0.02853291324689053</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>0.06058234118235608</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>0.04758648683922365</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>0.02416466881381348</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>0.04949800824389482</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>0.03760019859788008</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>0.04045919284597039</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>0.04451005717980055</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>0.05237492063362151</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>0.03165654144762084</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>0.0121841546955208</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>0.004804253517203809</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>0.003334650567131272</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>0.005526314025395549</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>0.143560971933417</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>0.03603650667347635</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>0.009170858680503442</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>0.01097088347084355</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>0.07749226795618112</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>0.03873167078662663</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>0.01220677322954483</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>0.004412484017074651</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>0.00417480984859867</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>0.004289009264165846</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>0.003548738459096057</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>0.00312339176570337</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>0.1434611862430271</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>0.05101437881682068</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>0.01869332879191886</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>0.03964154350928342</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>0.0512058298488458</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>0.02188117685789863</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>0.02210423487525744</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>0.05158960511938979</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>0.02927049290893289</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>0.09884188565505078</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>0.0520058649259892</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>0.03987505226381827</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>0.03454111146601485</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>0.05988051477520125</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>0.02648868124297445</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>0.006903494559597542</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>0.004601711101358666</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>0.004067431946612309</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>0.003834880855218926</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>0.004128347523909746</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>0.003680293622430948</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>0.1579784287141016</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>0.02938414628350562</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>0.0376024136567494</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>0.02713527315874405</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="n">
+        <v>0.04225052828600959</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>0.02907734333009391</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>0.03437087594268122</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>0.04324210338051738</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>0.01510025233352591</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>0.005023775715380907</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>0.003800923936539287</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>0.05010162888618918</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>0.04617551435729227</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>0.01870350393693094</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>0.03688553559133164</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>0.04318645004865929</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>0.01063214329716596</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>0.004548622167265687</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>0.003637034470464242</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>0.003634444419677915</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>0.004163129252575767</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>0.09926838652428137</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>0.01313602259516057</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>0.007201738917501643</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>0.06582422969804611</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>0.01731186092390378</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>0.007839928925635077</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>0.003838380239278372</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>0.003489345366779162</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>0.003320140531699197</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>0.003792636998722872</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>0.003210368503486523</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>0.07525057761169325</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>0.06751793241554235</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>0.05269747352010364</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>0.03219058654108684</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>0.02192631681510654</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>0.04270640249038271</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>0.02136111331383372</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>0.01564562059036005</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>0.03176780000663809</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>0.03491088031757034</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>0.01710743788169188</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>0.0296910341496809</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>0.00986149705560364</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>0.004966693545927006</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>0.004257968612437741</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>0.004132374775954243</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>0.004137310583551489</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>0.08788949249169969</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>0.03680280401445384</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>0.008956641406509702</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>0.004991476717607837</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>0.004302442405252471</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>0.004198501209498267</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>0.05266097546352694</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>0.05419446209899277</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>0.01389187429466449</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>0.03032216885213006</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>0.02722407429881047</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>0.009105718367713789</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>0.01693705596334942</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>0.0571331187183341</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>0.02194287008740023</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>0.008934746619594544</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>0.004614329635437397</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>0.004147888790189132</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>0.004082627828557009</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>0.004112357165115987</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>0.004017665776700596</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>0.003839391688676509</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>0.004107499396229919</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>0.06707968403342902</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>0.07432641977339075</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>0.01510167783032478</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>0.006049945492904099</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n">
+        <v>0.004809914451922527</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>0.06260776050069571</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>0.03223806375126984</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>0.01477844534563645</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>0.03800362164296268</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>0.02407393827140283</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>0.02392206630268531</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>0.03764594117786793</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>0.01454836837137262</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>0.009277935186438515</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n">
+        <v>0.006437448688647584</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
+        <v>0.005488132028025125</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n">
+        <v>0.005249825555633318</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>0.005266711949737787</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n">
+        <v>0.005161148692376131</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>0.09418136531731039</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="n">
+        <v>0.02069920462957636</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>0.01220180194583177</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>0.03695151725762642</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>0.03605165814669724</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>0.01280910007212462</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>0.00648198748268001</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>0.005412588923954713</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>0.005320317050439736</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>0.005163398974018867</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>0.08588571047520858</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>0.02348278152672982</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="n">
+        <v>0.01534582012661219</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="n">
+        <v>0.00688343085659522</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="n">
+        <v>0.005573791616505745</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="n">
+        <v>0.03434843168488723</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="n">
+        <v>0.05121222946615218</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="n">
+        <v>0.01419384845483871</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>0.007477617455624193</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>0.005458871697409609</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>0.005267872960332132</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>0.00522184017586791</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>0.0052958558489728</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="n">
+        <v>0.005187684586058053</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="n">
+        <v>0.005039362608919508</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="n">
+        <v>0.08159312442644806</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="n">
+        <v>0.02726373222918183</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="n">
+        <v>0.01167742627237494</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="n">
+        <v>0.007685777135983952</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="n">
+        <v>0.00587933123697252</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="n">
+        <v>0.008784793525372845</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="n">
+        <v>0.03772667269331578</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="n">
+        <v>0.01537798205795774</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="n">
+        <v>0.02758695236888473</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="n">
+        <v>0.03584864900147382</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n">
+        <v>0.0141468838576111</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>0.02835128348721247</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>0.02945245588009822</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>0.02420852428089434</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>0.008009760355635947</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n">
+        <v>0.006262911362667052</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="n">
+        <v>0.006057277381644651</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="n">
+        <v>0.005983509779128196</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="n">
+        <v>0.06928382884699939</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="n">
+        <v>0.02361015928063786</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="n">
+        <v>0.007755129387431738</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="n">
+        <v>0.006375668424994469</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="n">
+        <v>0.00617190127115074</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="n">
+        <v>0.05562221722176868</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="n">
+        <v>0.03398748789980476</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="n">
+        <v>0.02542064109760326</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="n">
+        <v>0.01468992281662871</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="n">
+        <v>0.03222404484529133</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="n">
+        <v>0.01428345795673695</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="n">
+        <v>0.02462412035009558</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>0.007655892288083643</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="n">
+        <v>0.006100258685433974</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>0.03506767998352751</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>0.04557996933353994</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>0.01672562369970062</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>0.0179965686436394</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>0.02868523319649588</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="n">
+        <v>0.01478940394434002</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>0.006872182244357343</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>0.006160162296269586</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>0.005956018493115629</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>0.03965220304618318</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>0.04949722972828784</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>0.009981606172985352</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>0.008288141092007642</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>0.006526651448481668</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>0.05749003687633029</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>0.01564280105833729</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>0.01124768714985943</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>0.02304920657321678</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>0.02351862111253597</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>0.007874725129705504</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>0.006143712690708136</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>0.005933401062424569</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>0.005884239683844585</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>0.005987884879426322</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>0.05283310053166383</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>0.03015786321599922</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>0.02654236397289623</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>0.01355503126722255</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>0.02272200421817108</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>0.04344685928926768</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>0.01122819701909917</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>0.03438282739432412</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>0.02717155281974131</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>0.01335542305780315</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>0.01027067874782796</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>0.05419724980939614</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>0.01215654546135401</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>0.01534087264351994</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>0.02303374105222632</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>0.03775955790575615</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>0.01716926656098053</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>0.02209866517138382</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>0.0077698918646523</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>0.04088977589043914</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>0.01545341668771204</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>0.008555841056284395</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>0.02121812080426919</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>0.05103506023810903</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>0.01024863356667498</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>0.009456083351134584</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>0.007756214189547286</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>0.007084244233741204</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>0.05282761736749603</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>0.02412577910255085</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>0.01147519662275176</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>0.008076890265447893</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>0.04390644927454315</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>0.013446990172742</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>0.008212851345205415</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>0.03370269176190859</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>0.01527810431894984</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>0.1258346886543805</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>0.02397140983888025</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>0.02495906929531282</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>0.0278920701157299</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>0.01609302086932263</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>0.01317908097820473</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>0.0427619891017251</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>0.01788769067064114</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>0.01829888166978431</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>0.01138911477842672</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>0.03461952964840294</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>0.02661959207314239</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>0.009577443066154358</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>0.008491628384550951</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>0.04710883694045857</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>0.01596319965758356</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>0.01691765224000093</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>0.009677307443083163</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>0.007478367247043134</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>0.007329457849858468</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>0.007360211598160291</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>0.007337862578237341</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>0.07063464252678685</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>0.02259383382971421</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>0.01641527629848787</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>0.01634231596900405</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>0.02435783913448365</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>0.01329684998247898</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>0.02941516645068763</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="n">
+        <v>0.02130534328370872</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="n">
+        <v>0.02026683128942959</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="n">
+        <v>0.01053100641846105</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="n">
+        <v>0.02897258543157664</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="n">
+        <v>0.01167370691794267</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="n">
+        <v>0.008328493299813253</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="n">
+        <v>0.00748163029060579</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="n">
+        <v>0.05360475605863173</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="n">
+        <v>0.02023941010875639</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="n">
+        <v>0.01478582934170295</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="n">
+        <v>0.01908749599455366</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="n">
+        <v>0.02694482395928615</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="n">
+        <v>0.01348301852161913</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="n">
+        <v>0.00795072169766305</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="n">
+        <v>0.007322594249397176</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="n">
+        <v>0.007337892762759943</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="n">
+        <v>0.04147449625901429</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="n">
+        <v>0.03524845993231342</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="n">
+        <v>0.0574677432590201</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="n">
+        <v>0.027517856559537</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="n">
+        <v>0.01902620302224142</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="n">
+        <v>0.01615662436589553</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="n">
+        <v>0.01900953979689234</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="n">
+        <v>0.03545108707910726</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="n">
+        <v>0.01987279497486923</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="n">
+        <v>0.01426507716178999</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="n">
+        <v>0.02251799406068795</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="n">
+        <v>0.03001501433570075</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="n">
+        <v>0.01277852404260351</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="n">
+        <v>0.0274613512117332</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="n">
+        <v>0.02096883076681487</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="n">
+        <v>0.01303884109553558</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="n">
+        <v>0.02528706780208233</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="n">
+        <v>0.02499579239207423</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="n">
+        <v>0.02464012750660885</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="n">
+        <v>0.01330098251335189</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="n">
+        <v>0.008644327771233246</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="n">
+        <v>0.008611420143898204</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="n">
+        <v>0.008249213583519037</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="n">
+        <v>0.008297866859091825</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="n">
+        <v>0.05939103878941057</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="n">
+        <v>0.01860453495048029</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="n">
+        <v>0.02092072308720639</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="n">
+        <v>0.01211049045700866</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="n">
+        <v>0.02113777186432999</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="n">
+        <v>0.02275332262735349</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="n">
+        <v>0.009575244746602637</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="n">
+        <v>0.008857410684335484</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="n">
+        <v>0.008310889001921859</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="n">
+        <v>0.008348758163225608</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="n">
+        <v>0.04416939414348585</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="n">
+        <v>0.03918535149035206</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="n">
+        <v>0.01070046073766348</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="n">
+        <v>0.008806397285640489</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="n">
+        <v>0.00855810609186603</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="n">
+        <v>0.008618663516755311</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="n">
+        <v>0.03389349310273845</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="n">
+        <v>0.04618036978055597</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="n">
+        <v>0.01237022116689404</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="n">
+        <v>0.01000090119130306</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="n">
+        <v>0.008882706371048052</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="n">
+        <v>0.03445885906606432</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="n">
+        <v>0.02429127765045015</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="n">
+        <v>0.01227995975495235</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="n">
+        <v>0.008983177474967855</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="n">
+        <v>0.00867496706584822</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="n">
+        <v>0.008536784833685867</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="n">
+        <v>0.008400033790688674</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="n">
+        <v>0.06786572288971868</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="n">
+        <v>0.01913212689437576</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="n">
+        <v>0.02615954917999102</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="n">
+        <v>0.02590190805704008</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="n">
+        <v>0.02366992837529098</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="n">
+        <v>0.02313894816465569</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="n">
+        <v>0.01255007633400017</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="n">
+        <v>0.009549621860679484</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="n">
+        <v>0.02768693158809785</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="n">
+        <v>0.03553365245211021</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="n">
+        <v>0.01604134783707203</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="n">
+        <v>0.01109800643165563</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="n">
+        <v>0.02829461263451558</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="n">
+        <v>0.03513328375714333</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="n">
+        <v>0.01603969644146724</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="n">
+        <v>0.01347450488254563</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="n">
+        <v>0.03200011192585617</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="n">
+        <v>0.01989021502799817</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="n">
+        <v>0.02341330070276114</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="n">
+        <v>0.02203434981379847</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="n">
+        <v>0.01462191679720738</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="n">
+        <v>0.02603048898948097</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="n">
+        <v>0.01326548511155676</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="n">
+        <v>0.00961436713765099</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="n">
+        <v>0.009324245862567471</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="n">
+        <v>0.009235995924088426</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="n">
+        <v>0.009172023401809283</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="n">
+        <v>0.07287296604257786</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="n">
+        <v>0.01781561299854971</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="n">
+        <v>0.01303283705715102</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="n">
+        <v>0.01908602687702938</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="n">
+        <v>0.02633566770700144</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="n">
+        <v>0.01927471437177549</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="n">
+        <v>0.02478335331828766</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="n">
+        <v>0.01543538282855501</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="n">
+        <v>0.01000352997578528</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="n">
+        <v>0.019723308063193</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="n">
+        <v>0.03522229438836407</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="n">
+        <v>0.02227606444359587</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="n">
+        <v>0.01066628822829374</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="n">
+        <v>0.009544651229679142</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="n">
+        <v>0.01220118504258864</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="n">
+        <v>0.04890338598325695</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="n">
+        <v>0.01821989349974346</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="n">
+        <v>0.01435709039966301</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="n">
+        <v>0.009435739255028065</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="n">
+        <v>0.009191823056755262</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="n">
+        <v>0.04186254535264396</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="n">
+        <v>0.09675237352052131</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="n">
+        <v>0.02802784445551191</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="n">
+        <v>0.02026525637280556</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="n">
+        <v>0.01900245771359877</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="n">
+        <v>0.02327469635704633</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="n">
+        <v>0.02422841556561121</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="n">
+        <v>0.01485772926476033</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="n">
+        <v>0.02004679734818393</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="n">
+        <v>0.01207823249852474</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="n">
+        <v>0.03849185311357736</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="n">
+        <v>0.01223650141880607</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="n">
+        <v>0.009676462449591789</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="n">
+        <v>0.009136481351515978</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="n">
+        <v>0.009003298750702566</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="n">
+        <v>0.008957815376729119</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="n">
+        <v>0.04958671942505553</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="n">
+        <v>0.02325428626848263</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="n">
+        <v>0.01811256906556316</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="n">
+        <v>0.02513750995877494</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="n">
+        <v>0.01647871889467227</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="n">
+        <v>0.02325890001282523</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="n">
+        <v>0.02185227110704977</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="n">
+        <v>0.01155321303982277</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="n">
+        <v>0.009187609414036206</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="n">
+        <v>0.008994069507662275</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="n">
+        <v>0.009074224571228223</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="n">
+        <v>0.04501679643195455</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="n">
+        <v>0.01815742182977079</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="n">
+        <v>0.01234584713105549</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="n">
+        <v>0.02705797410810701</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="n">
+        <v>0.01845395667888763</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="n">
+        <v>0.02574275678702711</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="n">
+        <v>0.01157113485520122</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="n">
+        <v>0.009335292366422778</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="n">
+        <v>0.009046465199006664</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="n">
+        <v>0.00911196409161211</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="n">
+        <v>0.04274603757031905</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="n">
+        <v>0.01905279211734704</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="n">
+        <v>0.010910784257118</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="n">
+        <v>0.03100321632553279</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="n">
+        <v>0.01996706274339227</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="n">
+        <v>0.01987844759955306</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="n">
+        <v>0.01818096645852763</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="n">
+        <v>0.01991591288556057</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="n">
+        <v>0.01219346021911767</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="n">
+        <v>0.02537343913744328</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="n">
+        <v>0.01135575729321727</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="n">
+        <v>0.04476277185748122</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="n">
+        <v>0.01398982406269782</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="n">
+        <v>0.02489173752340853</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="n">
+        <v>0.02318172223567214</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="n">
+        <v>0.0156799315897299</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="n">
+        <v>0.009675126867932704</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="n">
+        <v>0.00918291356631943</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="n">
+        <v>0.04047006101127294</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="n">
+        <v>0.01455241328088811</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="n">
+        <v>0.02547953968660066</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="n">
+        <v>0.01589085363629289</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="n">
+        <v>0.01339270220827953</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="n">
+        <v>0.02567759718411756</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="n">
+        <v>0.0179021007049251</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="n">
+        <v>0.01316341045378708</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="n">
+        <v>0.02074886883218475</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="n">
+        <v>0.009665371323376491</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="n">
+        <v>0.009264902290298619</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="n">
+        <v>0.009217938900189536</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="n">
+        <v>0.009108134621620943</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="n">
+        <v>0.04964610300064335</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="n">
+        <v>0.01638448394399765</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="n">
+        <v>0.01118582701170259</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="n">
+        <v>0.02890637507451678</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="n">
+        <v>0.0133172050212622</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="n">
+        <v>0.02084269334596489</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="n">
+        <v>0.01744855776952084</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="n">
+        <v>0.02175064994640798</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="n">
+        <v>0.01088601615625098</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="n">
+        <v>0.02460304653265878</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="n">
+        <v>0.02116238181513138</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="n">
+        <v>0.01047326234968424</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="n">
+        <v>0.009371650522741432</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="n">
+        <v>0.02959690971240849</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="n">
+        <v>0.01973418851940671</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="n">
+        <v>0.009986922172641433</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="n">
+        <v>0.009253540323681374</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="n">
+        <v>0.03821700321101425</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="n">
+        <v>0.01355114900068988</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="n">
+        <v>0.009767248188540373</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="n">
+        <v>0.009474921026875673</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="n">
+        <v>0.02760012829425095</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="n">
+        <v>0.02148393389480625</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="n">
+        <v>0.02505120524208252</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="n">
+        <v>0.01303373223585105</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="n">
+        <v>0.0100933602066913</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="n">
+        <v>0.03395699317128895</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="n">
+        <v>0.01541370358134063</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="n">
+        <v>0.0104383012004102</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="n">
+        <v>0.03094619735382788</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="n">
+        <v>0.02044819925754543</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="n">
+        <v>0.01191811786257637</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="n">
+        <v>0.009935389908071128</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="n">
+        <v>0.009804816589450153</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="n">
+        <v>0.009588522583779659</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="n">
+        <v>0.05809254035852597</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="n">
+        <v>0.01730829806041988</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="n">
+        <v>0.01812264659313061</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="n">
+        <v>0.01791904075286871</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="n">
+        <v>0.02565333026545209</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="n">
+        <v>0.01910899110568885</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="n">
+        <v>0.01466760455631485</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="n">
+        <v>0.02270707618787068</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="n">
+        <v>0.01603800414355285</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="n">
+        <v>0.02072123302981876</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="n">
+        <v>0.02425787671276055</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="n">
+        <v>0.01812952271963596</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="n">
+        <v>0.01025368026467467</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="n">
+        <v>0.00964660464065468</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="n">
+        <v>0.009652644251581152</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="n">
+        <v>0.00982639669050449</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="n">
+        <v>0.05076490972893988</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="n">
+        <v>0.01514424337923237</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="n">
+        <v>0.01097697790006118</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="n">
+        <v>0.02657242269192283</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="n">
+        <v>0.03511923057628878</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="n">
+        <v>0.02555928503313037</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="n">
+        <v>0.02180861871131497</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="n">
+        <v>0.01269332100444947</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="n">
+        <v>0.01089156148446071</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="n">
+        <v>0.01061955849481799</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="n">
+        <v>0.01041981282795776</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="n">
+        <v>0.04652862650840423</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="n">
+        <v>0.01715353801006852</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="n">
+        <v>0.01324536621748297</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="n">
+        <v>0.0108343942821337</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="n">
+        <v>0.04224613598674555</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="n">
+        <v>0.0184876507094614</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="n">
+        <v>0.01290224556103522</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="n">
+        <v>0.03075713543925615</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="n">
+        <v>0.01622954115746142</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="n">
+        <v>0.02514722514712162</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="n">
+        <v>0.01620500661023904</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="n">
+        <v>0.0231884081935022</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="n">
+        <v>0.02100379984254051</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="n">
+        <v>0.01417811456672918</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="n">
+        <v>0.0237756368517953</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="n">
+        <v>0.0166193352197935</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="n">
+        <v>0.02633746053543301</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="n">
+        <v>0.01726503292595635</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="n">
+        <v>0.01217753377992097</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="n">
+        <v>0.03295318716310372</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="n">
+        <v>0.01748146240844738</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="n">
+        <v>0.01449768377395135</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="n">
+        <v>0.02375722267588126</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="n">
+        <v>0.01221244651760232</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="n">
+        <v>0.03271794559706281</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="n">
+        <v>0.01544373279107388</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="n">
+        <v>0.01675012573053752</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="n">
+        <v>0.02089592582586381</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="n">
+        <v>0.02611462971910587</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="n">
+        <v>0.01356634627980957</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="n">
+        <v>0.01080523594218255</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="n">
+        <v>0.02984768411968268</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="n">
+        <v>0.02017108741890038</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="n">
+        <v>0.01884623729982596</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="n">
+        <v>0.01186571169388562</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="n">
+        <v>0.02677606389429173</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="n">
+        <v>0.01180292767213523</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="n">
+        <v>0.01056503777467714</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="n">
+        <v>0.01041767634412804</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="n">
+        <v>0.0208092756602497</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="n">
+        <v>0.03745468281658455</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="n">
+        <v>0.01284363401504164</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="n">
+        <v>0.01088977143836535</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="n">
+        <v>0.08431362394625497</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="n">
+        <v>0.02552972479504718</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="n">
+        <v>0.02372450430535353</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="n">
+        <v>0.02022591749415797</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="n">
+        <v>0.03028421788095719</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="n">
+        <v>0.01837232532582048</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="n">
+        <v>0.02326299616228456</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="n">
+        <v>0.01833866149974076</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="n">
+        <v>0.03064803807486354</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="n">
+        <v>0.01463089621196017</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="n">
+        <v>0.01854250350774745</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="n">
+        <v>0.02585367995656979</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="n">
+        <v>0.0187496520177262</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="n">
+        <v>0.02309836339878614</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="n">
+        <v>0.02468168775933674</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="n">
+        <v>0.01987727108504649</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="n">
+        <v>0.01201647351313056</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="n">
+        <v>0.02760013210087257</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="n">
+        <v>0.01807746944933654</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="n">
+        <v>0.02459336845793744</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="n">
+        <v>0.01605837128380663</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="n">
+        <v>0.01760974411389077</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="n">
+        <v>0.01802572966204873</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="n">
+        <v>0.01864126174130963</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="n">
+        <v>0.02149009614936881</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="n">
+        <v>0.01705448099964414</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="n">
+        <v>0.01185411968558325</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="n">
+        <v>0.03456180096837984</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="n">
+        <v>0.0196286441479813</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="n">
+        <v>0.0130071369678674</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="n">
+        <v>0.02590613569330959</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="n">
+        <v>0.02162137732026328</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="n">
+        <v>0.0143582072466488</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="n">
+        <v>0.02531901406135859</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="n">
+        <v>0.04262594403466817</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="n">
+        <v>0.02382326660948713</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="n">
+        <v>0.02522488438439213</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="n">
+        <v>0.01787715404279771</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="n">
+        <v>0.02268735782264539</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="n">
+        <v>0.0249836645683278</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="n">
+        <v>0.01974608517696118</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="n">
+        <v>0.01910249301462194</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="n">
+        <v>0.02873470429990525</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="n">
+        <v>0.01492902369698256</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="n">
+        <v>0.0140003099925141</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="n">
+        <v>0.03583858624873414</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="n">
+        <v>0.01720184095612703</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="n">
+        <v>0.01414683239962722</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="n">
+        <v>0.02796316223455374</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="n">
+        <v>0.01875152751377058</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="n">
+        <v>0.01406406410919144</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="n">
+        <v>0.03016804538973247</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="n">
+        <v>0.01857690420927</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="n">
+        <v>0.02216934709840797</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="n">
+        <v>0.01442838068299487</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="n">
+        <v>0.02561813703839316</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="n">
+        <v>0.01676278154814248</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="n">
+        <v>0.02432597995257509</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="n">
+        <v>0.01819411786038984</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="n">
+        <v>0.02227354536232117</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="n">
+        <v>0.02129160593095208</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="n">
+        <v>0.01193730687506231</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="n">
+        <v>0.02965335560642246</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="n">
+        <v>0.0155867305597944</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="n">
+        <v>0.02120319286358366</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="n">
+        <v>0.02595568586445183</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="n">
+        <v>0.01274588127893134</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="n">
+        <v>0.01826071382768457</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="n">
+        <v>0.02764741095962015</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="n">
+        <v>0.01808421990050484</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="n">
+        <v>0.02548808118512831</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="n">
+        <v>0.01352833157542986</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="n">
+        <v>0.01145145053476415</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="n">
+        <v>0.01104586628378803</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="n">
+        <v>0.01098278822471721</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="n">
+        <v>0.04162378045387665</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="n">
+        <v>0.01851182180209521</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="n">
+        <v>0.01935109363590164</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="n">
+        <v>0.01898661727140525</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="n">
+        <v>0.02112500199318485</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="n">
+        <v>0.01785037740907295</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="n">
+        <v>0.02611835900483519</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="n">
+        <v>0.01339146538526763</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="n">
+        <v>0.01736374601564182</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="n">
+        <v>0.04984955311601195</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="n">
+        <v>0.02807505580853431</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="n">
+        <v>0.0236362368356046</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="n">
+        <v>0.01684732905316291</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="n">
+        <v>0.03204873889692288</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="n">
+        <v>0.01952199628536342</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="n">
+        <v>0.01945371944624942</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="n">
+        <v>0.02218901567578839</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="n">
+        <v>0.01737986712450058</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="n">
+        <v>0.02619810106348755</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="n">
+        <v>0.01518408682845614</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="n">
+        <v>0.02216185249685503</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="n">
+        <v>0.02785681637410596</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="n">
+        <v>0.01646384585824376</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="n">
+        <v>0.02519001872359066</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="n">
+        <v>0.01684193121075493</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="n">
+        <v>0.02001382954750126</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="n">
+        <v>0.02495737443878871</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="n">
+        <v>0.01972747129798378</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="n">
+        <v>0.02496568207745844</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="n">
+        <v>0.02110613240058358</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="n">
+        <v>0.02459131318116513</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="n">
+        <v>0.0173851627121299</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="n">
+        <v>0.02295487470275391</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="n">
+        <v>0.01311858349610755</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="n">
+        <v>0.01408398842352562</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="n">
+        <v>0.03543430145414209</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="n">
+        <v>0.01449161118198672</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="n">
+        <v>0.02284104776672188</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="n">
+        <v>0.01945256919074744</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="n">
+        <v>0.02061705637135205</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="n">
+        <v>0.01674281558510223</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="n">
+        <v>0.02415394315265014</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="n">
+        <v>0.01415325489413657</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="n">
+        <v>0.02995268260177622</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="n">
+        <v>0.01566039666014128</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="n">
+        <v>0.01297098988286644</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="n">
+        <v>0.03086550260088233</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="n">
+        <v>0.02080888597011712</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="n">
+        <v>0.03663970837541288</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="n">
+        <v>0.02701889729964653</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="n">
+        <v>0.02136836201662956</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="n">
+        <v>0.01621935163771908</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="n">
+        <v>0.02567402959405368</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="n">
+        <v>0.02257608302176809</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="n">
+        <v>0.02422517583088966</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="n">
+        <v>0.01882778768717107</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="n">
+        <v>0.01862794429075074</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="n">
+        <v>0.02474212321577374</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="n">
+        <v>0.02269245484994713</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="n">
+        <v>0.01491945326570236</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="n">
+        <v>0.02461816809492814</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="n">
+        <v>0.02409299628951183</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="n">
+        <v>0.01498483445940197</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="n">
+        <v>0.03163124717586538</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="n">
+        <v>0.02024224073445621</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="n">
+        <v>0.01571580504753952</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="n">
+        <v>0.02693788226360913</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="n">
+        <v>0.01636773208934846</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="n">
+        <v>0.02368198450486413</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="n">
+        <v>0.02035778698713332</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="n">
+        <v>0.02043658799719233</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="n">
+        <v>0.02451129229115993</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="n">
+        <v>0.0168816909932346</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="n">
+        <v>0.02760466268763637</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="n">
+        <v>0.01599096859125953</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="n">
+        <v>0.02071346310473166</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="n">
+        <v>0.0219918781494259</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="n">
+        <v>0.02234040380987494</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="n">
+        <v>0.01942820719918113</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="n">
+        <v>0.02046653406456569</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="n">
+        <v>0.02293188346448491</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="n">
+        <v>0.01316534098555794</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="n">
+        <v>0.02663335417229413</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="n">
+        <v>0.02238577716456589</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="n">
+        <v>0.01263703669448877</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="n">
+        <v>0.02378380351224114</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="n">
+        <v>0.0256161886776153</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="n">
+        <v>0.02257261539417488</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="n">
+        <v>0.0163563025949124</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="n">
+        <v>0.02105984660251714</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="n">
+        <v>0.01454248914646364</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="n">
+        <v>0.02080796335738772</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="n">
+        <v>0.02231179346523854</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="n">
+        <v>0.01690535105704958</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="n">
+        <v>0.02382489965575927</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="n">
+        <v>0.01195004161032473</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="n">
+        <v>0.02904528784316938</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="n">
+        <v>0.01825544395667761</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="n">
+        <v>0.03597400412833626</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="n">
+        <v>0.0234659848023198</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="n">
+        <v>0.02163645386582196</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="n">
+        <v>0.02472087721992405</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="n">
+        <v>0.02263009777042685</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="n">
+        <v>0.0188221455795942</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="n">
+        <v>0.02335637173250139</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="n">
+        <v>0.02199804028555052</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="n">
+        <v>0.02018066564852062</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="n">
+        <v>0.01499043430381314</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="n">
+        <v>0.02856604600191895</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="n">
+        <v>0.01447623447103052</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="n">
+        <v>0.01276806745251141</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="n">
+        <v>0.03508883939152669</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="n">
+        <v>0.01784466449689309</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="n">
+        <v>0.02188387833070124</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="n">
+        <v>0.02163006664289227</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="n">
+        <v>0.02241746787564091</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="n">
+        <v>0.02134931676627181</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="n">
+        <v>0.02406244883991137</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="n">
+        <v>0.02083994997087238</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="n">
+        <v>0.01786747414224506</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="n">
+        <v>0.0275515503265713</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="n">
+        <v>0.01605210852119716</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="n">
+        <v>0.02288794142951422</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="n">
+        <v>0.01904324429961979</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="n">
+        <v>0.01310863054500512</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="n">
+        <v>0.01227377430643844</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="n">
+        <v>0.03775504517829346</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="n">
+        <v>0.02122261076263443</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="n">
+        <v>0.0171486332929507</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="n">
+        <v>0.02675379642219471</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="n">
+        <v>0.01654296338092067</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="n">
+        <v>0.02565353434460158</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="n">
+        <v>0.01741410955260382</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="n">
+        <v>0.02435757139865808</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="n">
+        <v>0.02071703706165872</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="n">
+        <v>0.02317247100662136</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="n">
+        <v>0.01490119099459284</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="n">
+        <v>0.0272658894577279</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="n">
+        <v>0.02073288970756793</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="n">
+        <v>0.01758887448265409</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="n">
+        <v>0.02468997083021472</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="n">
+        <v>0.01671709872940038</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="n">
+        <v>0.02400208579687555</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="n">
+        <v>0.01810958463512154</v>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="n">
+        <v>0.02608580103829257</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="n">
+        <v>0.01393628775535337</v>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="n">
+        <v>0.02791931252751722</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="n">
+        <v>0.02076115398579517</v>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="n">
+        <v>0.04677405823756332</v>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="n">
+        <v>0.03084860049161188</v>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="n">
+        <v>0.02636288160424285</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="n">
+        <v>0.02272978982660098</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="n">
+        <v>0.02382342526225607</v>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="n">
+        <v>0.02980481823398301</v>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="n">
+        <v>0.02122064262330987</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="n">
+        <v>0.0216484332707075</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="n">
+        <v>0.02934496004628679</v>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="n">
+        <v>0.01547484339659726</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="n">
+        <v>0.02788127828915374</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="n">
+        <v>0.01944818761356561</v>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="n">
+        <v>0.02540864810990567</v>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="n">
+        <v>0.02086673331885207</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="n">
+        <v>0.02399165362424873</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="n">
+        <v>0.01773031034816746</v>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="n">
+        <v>0.02661119135461502</v>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="n">
+        <v>0.0228296780538988</v>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="n">
+        <v>0.01759611536261897</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="n">
+        <v>0.0245501408875106</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="n">
+        <v>0.01928696868401119</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="n">
+        <v>0.02133778545609478</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="n">
+        <v>0.01829942851430171</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="n">
+        <v>0.02313330397668721</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="n">
+        <v>0.02091062314154736</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="n">
+        <v>0.02525542423251858</v>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="n">
+        <v>0.01794259087794937</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="n">
+        <v>0.02942285490714467</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="n">
+        <v>0.01476348010999557</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="n">
+        <v>0.03108531137938556</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="n">
+        <v>0.02078441696643556</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="n">
+        <v>0.02268020177574978</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="n">
+        <v>0.01546400376727217</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="n">
+        <v>0.02573821639600445</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="n">
+        <v>0.02195915877006606</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="n">
+        <v>0.02202231188025423</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="n">
+        <v>0.01778447762427385</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="n">
+        <v>0.01999626409158439</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="n">
+        <v>0.02658698799053733</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="n">
+        <v>0.0182970968329005</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="n">
+        <v>0.02092790384310452</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="n">
+        <v>0.02511255367191005</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="n">
+        <v>0.01804847153679164</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="n">
+        <v>0.02355217418778868</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="n">
+        <v>0.01818676580245401</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="n">
+        <v>0.02720057412378681</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="n">
+        <v>0.01868820417773351</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="n">
+        <v>0.02165224608728632</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
